--- a/historical_emissions_training.xlsx
+++ b/historical_emissions_training.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\itera\sm 6\data mining\tubes\Emission_Predection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/668510464213a027/Documents/Kuliah/Akademik/Semester 6/Data Mining/Tugas Besar/Emission_Predection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F4C0D8-6DCA-447C-BE4F-B5116DCE6585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{35F4C0D8-6DCA-447C-BE4F-B5116DCE6585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD0715E0-669B-49C1-8128-50576371468E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="291">
   <si>
     <t>Country</t>
   </si>
@@ -1272,1056 +1274,924 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77971831-E416-456A-95A0-06BDC7233BF3}">
-  <dimension ref="A1:AE11"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>1991</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>1991</v>
-      </c>
-      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
+      <c r="B2">
+        <v>1574.76</v>
+      </c>
+      <c r="C2">
+        <v>1539.23</v>
+      </c>
+      <c r="D2">
+        <v>1250.27</v>
+      </c>
+      <c r="E2">
+        <v>1303.8699999999999</v>
       </c>
       <c r="F2">
-        <v>1574.76</v>
+        <v>1285.69</v>
       </c>
       <c r="G2">
-        <v>1539.23</v>
+        <v>773.92</v>
       </c>
       <c r="H2">
-        <v>1250.27</v>
+        <v>1036.71</v>
       </c>
       <c r="I2">
-        <v>1303.8699999999999</v>
+        <v>731.76</v>
       </c>
       <c r="J2">
-        <v>1285.69</v>
+        <v>738.57</v>
       </c>
       <c r="K2">
-        <v>773.92</v>
+        <v>1152.83</v>
       </c>
       <c r="L2">
-        <v>1036.71</v>
+        <v>829.93</v>
       </c>
       <c r="M2">
-        <v>731.76</v>
+        <v>1031.49</v>
       </c>
       <c r="N2">
-        <v>738.57</v>
+        <v>761.93</v>
       </c>
       <c r="O2">
-        <v>1152.83</v>
+        <v>1001.39</v>
       </c>
       <c r="P2">
-        <v>829.93</v>
+        <v>631.16</v>
       </c>
       <c r="Q2">
-        <v>1031.49</v>
+        <v>795.62</v>
       </c>
       <c r="R2">
-        <v>761.93</v>
+        <v>849.42</v>
       </c>
       <c r="S2">
-        <v>1001.39</v>
+        <v>907.96</v>
       </c>
       <c r="T2">
-        <v>631.16</v>
+        <v>1484.56</v>
       </c>
       <c r="U2">
-        <v>795.62</v>
+        <v>772.38</v>
       </c>
       <c r="V2">
-        <v>849.42</v>
+        <v>909.21</v>
       </c>
       <c r="W2">
-        <v>907.96</v>
+        <v>881.31</v>
       </c>
       <c r="X2">
-        <v>1484.56</v>
+        <v>869.88</v>
       </c>
       <c r="Y2">
-        <v>772.38</v>
+        <v>855.3</v>
       </c>
       <c r="Z2">
-        <v>909.21</v>
+        <v>846.23</v>
       </c>
       <c r="AA2">
-        <v>881.31</v>
-      </c>
-      <c r="AB2">
-        <v>869.88</v>
-      </c>
-      <c r="AC2">
-        <v>855.3</v>
-      </c>
-      <c r="AD2">
-        <v>846.23</v>
-      </c>
-      <c r="AE2">
         <v>832.39</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
+      <c r="B3">
+        <v>124.54</v>
+      </c>
+      <c r="C3">
+        <v>135.37</v>
+      </c>
+      <c r="D3">
+        <v>109.59</v>
+      </c>
+      <c r="E3">
+        <v>91.92</v>
       </c>
       <c r="F3">
-        <v>124.54</v>
+        <v>92.13</v>
       </c>
       <c r="G3">
-        <v>135.37</v>
+        <v>316.2</v>
       </c>
       <c r="H3">
-        <v>109.59</v>
+        <v>303.97000000000003</v>
       </c>
       <c r="I3">
-        <v>91.92</v>
+        <v>309.7</v>
       </c>
       <c r="J3">
-        <v>92.13</v>
+        <v>298.83</v>
       </c>
       <c r="K3">
-        <v>316.2</v>
+        <v>277.26</v>
       </c>
       <c r="L3">
-        <v>303.97000000000003</v>
+        <v>279.58999999999997</v>
       </c>
       <c r="M3">
-        <v>309.7</v>
+        <v>268.08999999999997</v>
       </c>
       <c r="N3">
-        <v>298.83</v>
+        <v>247.43</v>
       </c>
       <c r="O3">
-        <v>277.26</v>
+        <v>240.01</v>
       </c>
       <c r="P3">
-        <v>279.58999999999997</v>
+        <v>224.83</v>
       </c>
       <c r="Q3">
-        <v>268.08999999999997</v>
+        <v>233.1</v>
       </c>
       <c r="R3">
-        <v>247.43</v>
+        <v>222.59</v>
       </c>
       <c r="S3">
-        <v>240.01</v>
+        <v>233.95</v>
       </c>
       <c r="T3">
-        <v>224.83</v>
+        <v>214.34</v>
       </c>
       <c r="U3">
-        <v>233.1</v>
+        <v>206.21</v>
       </c>
       <c r="V3">
-        <v>222.59</v>
+        <v>197.88</v>
       </c>
       <c r="W3">
-        <v>233.95</v>
+        <v>191.2</v>
       </c>
       <c r="X3">
-        <v>214.34</v>
+        <v>185.4</v>
       </c>
       <c r="Y3">
-        <v>206.21</v>
+        <v>183.09</v>
       </c>
       <c r="Z3">
-        <v>197.88</v>
+        <v>177.54</v>
       </c>
       <c r="AA3">
-        <v>191.2</v>
-      </c>
-      <c r="AB3">
-        <v>185.4</v>
-      </c>
-      <c r="AC3">
-        <v>183.09</v>
-      </c>
-      <c r="AD3">
-        <v>177.54</v>
-      </c>
-      <c r="AE3">
         <v>170.4</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>74</v>
       </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
+      <c r="B4">
+        <v>116.1</v>
+      </c>
+      <c r="C4">
+        <v>106.84</v>
+      </c>
+      <c r="D4">
+        <v>100.23</v>
+      </c>
+      <c r="E4">
+        <v>90.49</v>
       </c>
       <c r="F4">
-        <v>116.1</v>
+        <v>86.9</v>
       </c>
       <c r="G4">
-        <v>106.84</v>
+        <v>85.95</v>
       </c>
       <c r="H4">
-        <v>100.23</v>
+        <v>79.91</v>
       </c>
       <c r="I4">
-        <v>90.49</v>
+        <v>79.11</v>
       </c>
       <c r="J4">
-        <v>86.9</v>
+        <v>76.94</v>
       </c>
       <c r="K4">
-        <v>85.95</v>
+        <v>73.19</v>
       </c>
       <c r="L4">
-        <v>79.91</v>
+        <v>80.489999999999995</v>
       </c>
       <c r="M4">
-        <v>79.11</v>
+        <v>78.709999999999994</v>
       </c>
       <c r="N4">
-        <v>76.94</v>
+        <v>77.150000000000006</v>
       </c>
       <c r="O4">
-        <v>73.19</v>
+        <v>75.33</v>
       </c>
       <c r="P4">
-        <v>80.489999999999995</v>
+        <v>74.05</v>
       </c>
       <c r="Q4">
-        <v>78.709999999999994</v>
+        <v>75.59</v>
       </c>
       <c r="R4">
-        <v>77.150000000000006</v>
+        <v>74.84</v>
       </c>
       <c r="S4">
-        <v>75.33</v>
+        <v>77.33</v>
       </c>
       <c r="T4">
-        <v>74.05</v>
+        <v>77.73</v>
       </c>
       <c r="U4">
-        <v>75.59</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="V4">
-        <v>74.84</v>
+        <v>64.209999999999994</v>
       </c>
       <c r="W4">
-        <v>77.33</v>
+        <v>53.9</v>
       </c>
       <c r="X4">
-        <v>77.73</v>
+        <v>49.87</v>
       </c>
       <c r="Y4">
-        <v>69.900000000000006</v>
+        <v>46.14</v>
       </c>
       <c r="Z4">
-        <v>64.209999999999994</v>
+        <v>42.77</v>
       </c>
       <c r="AA4">
-        <v>53.9</v>
-      </c>
-      <c r="AB4">
-        <v>49.87</v>
-      </c>
-      <c r="AC4">
-        <v>46.14</v>
-      </c>
-      <c r="AD4">
-        <v>42.77</v>
-      </c>
-      <c r="AE4">
         <v>43.25</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>76</v>
       </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
+      <c r="B5">
+        <v>128.25</v>
+      </c>
+      <c r="C5">
+        <v>124.63</v>
+      </c>
+      <c r="D5">
+        <v>121.56</v>
+      </c>
+      <c r="E5">
+        <v>118.38</v>
       </c>
       <c r="F5">
-        <v>128.25</v>
+        <v>114.79</v>
       </c>
       <c r="G5">
-        <v>124.63</v>
+        <v>134.15</v>
       </c>
       <c r="H5">
-        <v>121.56</v>
+        <v>132.1</v>
       </c>
       <c r="I5">
-        <v>118.38</v>
+        <v>130.97999999999999</v>
       </c>
       <c r="J5">
-        <v>114.79</v>
+        <v>135.08000000000001</v>
       </c>
       <c r="K5">
-        <v>134.15</v>
+        <v>135.19999999999999</v>
       </c>
       <c r="L5">
-        <v>132.1</v>
+        <v>134.24</v>
       </c>
       <c r="M5">
-        <v>130.97999999999999</v>
+        <v>136.38</v>
       </c>
       <c r="N5">
-        <v>135.08000000000001</v>
+        <v>134.72</v>
       </c>
       <c r="O5">
-        <v>135.19999999999999</v>
+        <v>131.21</v>
       </c>
       <c r="P5">
-        <v>134.24</v>
+        <v>131.84</v>
       </c>
       <c r="Q5">
-        <v>136.38</v>
+        <v>150.72</v>
       </c>
       <c r="R5">
-        <v>134.72</v>
+        <v>150.15</v>
       </c>
       <c r="S5">
-        <v>131.21</v>
+        <v>149.01</v>
       </c>
       <c r="T5">
-        <v>131.84</v>
+        <v>147.66</v>
       </c>
       <c r="U5">
-        <v>150.72</v>
+        <v>148.08000000000001</v>
       </c>
       <c r="V5">
-        <v>150.15</v>
+        <v>148.94</v>
       </c>
       <c r="W5">
-        <v>149.01</v>
+        <v>147.62</v>
       </c>
       <c r="X5">
-        <v>147.66</v>
+        <v>146.79</v>
       </c>
       <c r="Y5">
-        <v>148.08000000000001</v>
+        <v>146.26</v>
       </c>
       <c r="Z5">
-        <v>148.94</v>
+        <v>146.1</v>
       </c>
       <c r="AA5">
-        <v>147.62</v>
-      </c>
-      <c r="AB5">
-        <v>146.79</v>
-      </c>
-      <c r="AC5">
-        <v>146.26</v>
-      </c>
-      <c r="AD5">
-        <v>146.1</v>
-      </c>
-      <c r="AE5">
         <v>146.16999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>61</v>
       </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
+      <c r="B6">
+        <v>186.54</v>
+      </c>
+      <c r="C6">
+        <v>146.44</v>
+      </c>
+      <c r="D6">
+        <v>132.72</v>
+      </c>
+      <c r="E6">
+        <v>124.61</v>
       </c>
       <c r="F6">
-        <v>186.54</v>
+        <v>126.39</v>
       </c>
       <c r="G6">
-        <v>146.44</v>
+        <v>167.68</v>
       </c>
       <c r="H6">
-        <v>132.72</v>
+        <v>149.72999999999999</v>
       </c>
       <c r="I6">
-        <v>124.61</v>
+        <v>135.62</v>
       </c>
       <c r="J6">
-        <v>126.39</v>
+        <v>123.43</v>
       </c>
       <c r="K6">
-        <v>167.68</v>
+        <v>113.77</v>
       </c>
       <c r="L6">
-        <v>149.72999999999999</v>
+        <v>110.49</v>
       </c>
       <c r="M6">
-        <v>135.62</v>
+        <v>102.81</v>
       </c>
       <c r="N6">
-        <v>123.43</v>
+        <v>88.48</v>
       </c>
       <c r="O6">
-        <v>113.77</v>
+        <v>86.61</v>
       </c>
       <c r="P6">
-        <v>110.49</v>
+        <v>73.930000000000007</v>
       </c>
       <c r="Q6">
-        <v>102.81</v>
+        <v>-22.17</v>
       </c>
       <c r="R6">
-        <v>88.48</v>
+        <v>-27.25</v>
       </c>
       <c r="S6">
-        <v>86.61</v>
+        <v>-27.51</v>
       </c>
       <c r="T6">
-        <v>73.930000000000007</v>
+        <v>-32.4</v>
       </c>
       <c r="U6">
-        <v>-22.17</v>
+        <v>-38.299999999999997</v>
       </c>
       <c r="V6">
-        <v>-27.25</v>
+        <v>-41.95</v>
       </c>
       <c r="W6">
-        <v>-27.51</v>
+        <v>-45.54</v>
       </c>
       <c r="X6">
-        <v>-32.4</v>
+        <v>-48.04</v>
       </c>
       <c r="Y6">
-        <v>-38.299999999999997</v>
+        <v>-52.98</v>
       </c>
       <c r="Z6">
-        <v>-41.95</v>
+        <v>-53.98</v>
       </c>
       <c r="AA6">
-        <v>-45.54</v>
-      </c>
-      <c r="AB6">
-        <v>-48.04</v>
-      </c>
-      <c r="AC6">
-        <v>-52.98</v>
-      </c>
-      <c r="AD6">
-        <v>-53.98</v>
-      </c>
-      <c r="AE6">
         <v>-53.88</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>104</v>
       </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
+      <c r="B7">
+        <v>45.45</v>
+      </c>
+      <c r="C7">
+        <v>44.41</v>
+      </c>
+      <c r="D7">
+        <v>43.87</v>
+      </c>
+      <c r="E7">
+        <v>43.64</v>
       </c>
       <c r="F7">
-        <v>45.45</v>
+        <v>44.72</v>
       </c>
       <c r="G7">
-        <v>44.41</v>
+        <v>42.36</v>
       </c>
       <c r="H7">
-        <v>43.87</v>
+        <v>38.78</v>
       </c>
       <c r="I7">
-        <v>43.64</v>
+        <v>38.369999999999997</v>
       </c>
       <c r="J7">
-        <v>44.72</v>
+        <v>38.229999999999997</v>
       </c>
       <c r="K7">
-        <v>42.36</v>
+        <v>37.119999999999997</v>
       </c>
       <c r="L7">
-        <v>38.78</v>
+        <v>36.85</v>
       </c>
       <c r="M7">
-        <v>38.369999999999997</v>
+        <v>39.56</v>
       </c>
       <c r="N7">
-        <v>38.229999999999997</v>
+        <v>38.159999999999997</v>
       </c>
       <c r="O7">
-        <v>37.119999999999997</v>
+        <v>41.32</v>
       </c>
       <c r="P7">
-        <v>36.85</v>
+        <v>42.22</v>
       </c>
       <c r="Q7">
-        <v>39.56</v>
+        <v>42.53</v>
       </c>
       <c r="R7">
-        <v>38.159999999999997</v>
+        <v>38.42</v>
       </c>
       <c r="S7">
-        <v>41.32</v>
+        <v>37.94</v>
       </c>
       <c r="T7">
-        <v>42.22</v>
+        <v>39.450000000000003</v>
       </c>
       <c r="U7">
-        <v>42.53</v>
+        <v>39.81</v>
       </c>
       <c r="V7">
-        <v>38.42</v>
+        <v>38.83</v>
       </c>
       <c r="W7">
-        <v>37.94</v>
+        <v>39.19</v>
       </c>
       <c r="X7">
-        <v>39.450000000000003</v>
+        <v>37.32</v>
       </c>
       <c r="Y7">
-        <v>39.81</v>
+        <v>32.130000000000003</v>
       </c>
       <c r="Z7">
-        <v>38.83</v>
+        <v>31.24</v>
       </c>
       <c r="AA7">
-        <v>39.19</v>
-      </c>
-      <c r="AB7">
-        <v>37.32</v>
-      </c>
-      <c r="AC7">
-        <v>32.130000000000003</v>
-      </c>
-      <c r="AD7">
-        <v>31.24</v>
-      </c>
-      <c r="AE7">
         <v>29.67</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>123</v>
       </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
+      <c r="B8">
+        <v>17.32</v>
+      </c>
+      <c r="C8">
+        <v>13.09</v>
+      </c>
+      <c r="D8">
+        <v>12.58</v>
+      </c>
+      <c r="E8">
+        <v>11.94</v>
       </c>
       <c r="F8">
-        <v>17.32</v>
+        <v>11.71</v>
       </c>
       <c r="G8">
-        <v>13.09</v>
+        <v>15.05</v>
       </c>
       <c r="H8">
-        <v>12.58</v>
+        <v>14.71</v>
       </c>
       <c r="I8">
-        <v>11.94</v>
+        <v>14.22</v>
       </c>
       <c r="J8">
-        <v>11.71</v>
+        <v>13.91</v>
       </c>
       <c r="K8">
-        <v>15.05</v>
+        <v>13.82</v>
       </c>
       <c r="L8">
-        <v>14.71</v>
+        <v>13.43</v>
       </c>
       <c r="M8">
-        <v>14.22</v>
+        <v>13.39</v>
       </c>
       <c r="N8">
-        <v>13.91</v>
+        <v>13.33</v>
       </c>
       <c r="O8">
-        <v>13.82</v>
+        <v>13.28</v>
       </c>
       <c r="P8">
-        <v>13.43</v>
+        <v>13.17</v>
       </c>
       <c r="Q8">
-        <v>13.39</v>
+        <v>11.41</v>
       </c>
       <c r="R8">
-        <v>13.33</v>
+        <v>11.35</v>
       </c>
       <c r="S8">
-        <v>13.28</v>
+        <v>11.32</v>
       </c>
       <c r="T8">
-        <v>13.17</v>
+        <v>11.29</v>
       </c>
       <c r="U8">
-        <v>11.41</v>
+        <v>11.25</v>
       </c>
       <c r="V8">
-        <v>11.35</v>
+        <v>11.17</v>
       </c>
       <c r="W8">
-        <v>11.32</v>
+        <v>11.14</v>
       </c>
       <c r="X8">
-        <v>11.29</v>
+        <v>11.11</v>
       </c>
       <c r="Y8">
-        <v>11.25</v>
+        <v>11.1</v>
       </c>
       <c r="Z8">
-        <v>11.17</v>
+        <v>11.05</v>
       </c>
       <c r="AA8">
-        <v>11.14</v>
-      </c>
-      <c r="AB8">
-        <v>11.11</v>
-      </c>
-      <c r="AC8">
-        <v>11.1</v>
-      </c>
-      <c r="AD8">
-        <v>11.05</v>
-      </c>
-      <c r="AE8">
         <v>11.02</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>171</v>
       </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
+      <c r="B9">
+        <v>6.35</v>
+      </c>
+      <c r="C9">
+        <v>7.37</v>
+      </c>
+      <c r="D9">
+        <v>7.36</v>
+      </c>
+      <c r="E9">
+        <v>7.48</v>
       </c>
       <c r="F9">
-        <v>6.35</v>
+        <v>7.36</v>
       </c>
       <c r="G9">
-        <v>7.37</v>
+        <v>8.11</v>
       </c>
       <c r="H9">
-        <v>7.36</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I9">
-        <v>7.48</v>
+        <v>8.48</v>
       </c>
       <c r="J9">
-        <v>7.36</v>
+        <v>8.1</v>
       </c>
       <c r="K9">
-        <v>8.11</v>
+        <v>8.48</v>
       </c>
       <c r="L9">
-        <v>8.6999999999999993</v>
+        <v>6.11</v>
       </c>
       <c r="M9">
-        <v>8.48</v>
+        <v>6.2</v>
       </c>
       <c r="N9">
-        <v>8.1</v>
+        <v>6.65</v>
       </c>
       <c r="O9">
-        <v>8.48</v>
+        <v>5.66</v>
       </c>
       <c r="P9">
-        <v>6.11</v>
+        <v>5.66</v>
       </c>
       <c r="Q9">
-        <v>6.2</v>
+        <v>5.75</v>
       </c>
       <c r="R9">
-        <v>6.65</v>
+        <v>5.5</v>
       </c>
       <c r="S9">
+        <v>8.74</v>
+      </c>
+      <c r="T9">
+        <v>6.58</v>
+      </c>
+      <c r="U9">
+        <v>6.07</v>
+      </c>
+      <c r="V9">
+        <v>6.03</v>
+      </c>
+      <c r="W9">
         <v>5.66</v>
       </c>
-      <c r="T9">
-        <v>5.66</v>
-      </c>
-      <c r="U9">
-        <v>5.75</v>
-      </c>
-      <c r="V9">
-        <v>5.5</v>
-      </c>
-      <c r="W9">
-        <v>8.74</v>
-      </c>
       <c r="X9">
-        <v>6.58</v>
+        <v>5.38</v>
       </c>
       <c r="Y9">
-        <v>6.07</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="Z9">
-        <v>6.03</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AA9">
-        <v>5.66</v>
-      </c>
-      <c r="AB9">
-        <v>5.38</v>
-      </c>
-      <c r="AC9">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="AD9">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="AE9">
         <v>5.43</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>110</v>
       </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
+      <c r="B10">
+        <v>73.510000000000005</v>
+      </c>
+      <c r="C10">
+        <v>71.55</v>
+      </c>
+      <c r="D10">
+        <v>70.5</v>
+      </c>
+      <c r="E10">
+        <v>70.349999999999994</v>
       </c>
       <c r="F10">
-        <v>73.510000000000005</v>
+        <v>70.11</v>
       </c>
       <c r="G10">
-        <v>71.55</v>
+        <v>8.5</v>
       </c>
       <c r="H10">
-        <v>70.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I10">
-        <v>70.349999999999994</v>
+        <v>7.52</v>
       </c>
       <c r="J10">
-        <v>70.11</v>
+        <v>7.18</v>
       </c>
       <c r="K10">
-        <v>8.5</v>
+        <v>6.52</v>
       </c>
       <c r="L10">
-        <v>8.3000000000000007</v>
+        <v>6.21</v>
       </c>
       <c r="M10">
-        <v>7.52</v>
+        <v>5.95</v>
       </c>
       <c r="N10">
-        <v>7.18</v>
+        <v>5.95</v>
       </c>
       <c r="O10">
-        <v>6.52</v>
+        <v>5.78</v>
       </c>
       <c r="P10">
-        <v>6.21</v>
+        <v>5.73</v>
       </c>
       <c r="Q10">
-        <v>5.95</v>
+        <v>6.13</v>
       </c>
       <c r="R10">
-        <v>5.95</v>
+        <v>6.08</v>
       </c>
       <c r="S10">
+        <v>6.11</v>
+      </c>
+      <c r="T10">
+        <v>5.87</v>
+      </c>
+      <c r="U10">
         <v>5.78</v>
       </c>
-      <c r="T10">
-        <v>5.73</v>
-      </c>
-      <c r="U10">
-        <v>6.13</v>
-      </c>
       <c r="V10">
-        <v>6.08</v>
+        <v>5.68</v>
       </c>
       <c r="W10">
-        <v>6.11</v>
+        <v>5.64</v>
       </c>
       <c r="X10">
-        <v>5.87</v>
+        <v>5.55</v>
       </c>
       <c r="Y10">
-        <v>5.78</v>
+        <v>5.52</v>
       </c>
       <c r="Z10">
-        <v>5.68</v>
+        <v>5.47</v>
       </c>
       <c r="AA10">
-        <v>5.64</v>
-      </c>
-      <c r="AB10">
-        <v>5.55</v>
-      </c>
-      <c r="AC10">
-        <v>5.52</v>
-      </c>
-      <c r="AD10">
-        <v>5.47</v>
-      </c>
-      <c r="AE10">
         <v>5.43</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>58</v>
       </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
+      <c r="B11">
+        <v>263.33999999999997</v>
+      </c>
+      <c r="C11">
+        <v>259.38</v>
+      </c>
+      <c r="D11">
+        <v>262.72000000000003</v>
+      </c>
+      <c r="E11">
+        <v>252.33</v>
       </c>
       <c r="F11">
-        <v>263.33999999999997</v>
+        <v>234.88</v>
       </c>
       <c r="G11">
-        <v>259.38</v>
+        <v>202.37</v>
       </c>
       <c r="H11">
-        <v>262.72000000000003</v>
+        <v>187.79</v>
       </c>
       <c r="I11">
-        <v>252.33</v>
+        <v>194.8</v>
       </c>
       <c r="J11">
-        <v>234.88</v>
+        <v>190.63</v>
       </c>
       <c r="K11">
-        <v>202.37</v>
+        <v>184.56</v>
       </c>
       <c r="L11">
-        <v>187.79</v>
+        <v>182.59</v>
       </c>
       <c r="M11">
-        <v>194.8</v>
+        <v>176.75</v>
       </c>
       <c r="N11">
-        <v>190.63</v>
+        <v>157.31</v>
       </c>
       <c r="O11">
-        <v>184.56</v>
+        <v>149.6</v>
       </c>
       <c r="P11">
-        <v>182.59</v>
+        <v>138.28</v>
       </c>
       <c r="Q11">
-        <v>176.75</v>
+        <v>174.79</v>
       </c>
       <c r="R11">
-        <v>157.31</v>
+        <v>174.18</v>
       </c>
       <c r="S11">
-        <v>149.6</v>
+        <v>167.52</v>
       </c>
       <c r="T11">
-        <v>138.28</v>
+        <v>188.5</v>
       </c>
       <c r="U11">
-        <v>174.79</v>
+        <v>185.34</v>
       </c>
       <c r="V11">
-        <v>174.18</v>
+        <v>166.83</v>
       </c>
       <c r="W11">
-        <v>167.52</v>
+        <v>148.38999999999999</v>
       </c>
       <c r="X11">
-        <v>188.5</v>
+        <v>134.22999999999999</v>
       </c>
       <c r="Y11">
-        <v>185.34</v>
+        <v>119.61</v>
       </c>
       <c r="Z11">
-        <v>166.83</v>
+        <v>109.85</v>
       </c>
       <c r="AA11">
-        <v>148.38999999999999</v>
-      </c>
-      <c r="AB11">
-        <v>134.22999999999999</v>
-      </c>
-      <c r="AC11">
-        <v>119.61</v>
-      </c>
-      <c r="AD11">
-        <v>109.85</v>
-      </c>
-      <c r="AE11">
         <v>100.74</v>
       </c>
     </row>
@@ -2338,9 +2208,9 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2513,7 +2383,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -2608,7 +2478,7 @@
         <v>832.39</v>
       </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -2703,7 +2573,7 @@
         <v>170.4</v>
       </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -2798,7 +2668,7 @@
         <v>43.25</v>
       </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -2893,7 +2763,7 @@
         <v>146.16999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -2988,7 +2858,7 @@
         <v>-53.88</v>
       </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -3083,7 +2953,7 @@
         <v>29.67</v>
       </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>123</v>
       </c>
@@ -3178,7 +3048,7 @@
         <v>11.02</v>
       </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>171</v>
       </c>
@@ -3273,7 +3143,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -3368,7 +3238,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -3476,14 +3346,14 @@
       <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="22" width="9" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="8" bestFit="1" customWidth="1"/>
     <col min="24" max="28" width="9" bestFit="1" customWidth="1"/>
@@ -3491,11 +3361,11 @@
     <col min="30" max="30" width="9" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="8" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="9" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3590,7 +3460,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3688,7 +3558,7 @@
         <v>22849.919999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3786,7 +3656,7 @@
         <v>1823.96</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3884,7 +3754,7 @@
         <v>4426.3999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3982,7 +3852,7 @@
         <v>3286.44</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4080,7 +3950,7 @@
         <v>341.32</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4178,7 +4048,7 @@
         <v>832.39</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4276,7 +4146,7 @@
         <v>1016.89</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4374,7 +4244,7 @@
         <v>1790.34</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4472,7 +4342,7 @@
         <v>1236.73</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4570,7 +4440,7 @@
         <v>904.38</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4668,7 +4538,7 @@
         <v>158.83000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4766,7 +4636,7 @@
         <v>483.99</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4864,7 +4734,7 @@
         <v>370.89</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4962,7 +4832,7 @@
         <v>206.81</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5060,7 +4930,7 @@
         <v>166.39</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5158,7 +5028,7 @@
         <v>290.01</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5256,7 +5126,7 @@
         <v>253.94</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5354,7 +5224,7 @@
         <v>313.95</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -5452,7 +5322,7 @@
         <v>122.28</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -5550,7 +5420,7 @@
         <v>545.73</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -5648,7 +5518,7 @@
         <v>170.4</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -5746,7 +5616,7 @@
         <v>370.74</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -5844,7 +5714,7 @@
         <v>337.06</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -5942,7 +5812,7 @@
         <v>100.74</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -6040,7 +5910,7 @@
         <v>331.69</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -6138,7 +6008,7 @@
         <v>86.41</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -6236,7 +6106,7 @@
         <v>-53.88</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -6334,7 +6204,7 @@
         <v>172.32</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -6432,7 +6302,7 @@
         <v>236.74</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -6530,7 +6400,7 @@
         <v>69.099999999999994</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -6628,7 +6498,7 @@
         <v>144.16</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -6726,7 +6596,7 @@
         <v>55.4</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -6824,7 +6694,7 @@
         <v>64.709999999999994</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -6922,7 +6792,7 @@
         <v>248.17</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -7020,7 +6890,7 @@
         <v>113.84</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -7118,7 +6988,7 @@
         <v>640.09</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -7216,7 +7086,7 @@
         <v>141.35</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -7314,7 +7184,7 @@
         <v>149.83000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -7412,7 +7282,7 @@
         <v>68.47</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -7510,7 +7380,7 @@
         <v>43.25</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -7608,7 +7478,7 @@
         <v>80.38</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -7706,7 +7576,7 @@
         <v>146.16999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -7804,7 +7674,7 @@
         <v>116.97</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -7902,7 +7772,7 @@
         <v>34.130000000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -8000,7 +7870,7 @@
         <v>26.94</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -8098,7 +7968,7 @@
         <v>140.76</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -8196,7 +8066,7 @@
         <v>105.4</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -8294,7 +8164,7 @@
         <v>12.54</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -8392,7 +8262,7 @@
         <v>81.99</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -8490,7 +8360,7 @@
         <v>29.23</v>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -8588,7 +8458,7 @@
         <v>54.02</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -8686,7 +8556,7 @@
         <v>11.89</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -8784,7 +8654,7 @@
         <v>44.65</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -8882,7 +8752,7 @@
         <v>74.69</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -8980,7 +8850,7 @@
         <v>52.17</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -9078,7 +8948,7 @@
         <v>16.829999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -9176,7 +9046,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -9274,7 +9144,7 @@
         <v>33.78</v>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -9372,7 +9242,7 @@
         <v>49.47</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -9470,7 +9340,7 @@
         <v>36.090000000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -9568,7 +9438,7 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -9666,7 +9536,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -9764,7 +9634,7 @@
         <v>173.34</v>
       </c>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -9862,7 +9732,7 @@
         <v>23.44</v>
       </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -9960,7 +9830,7 @@
         <v>42.53</v>
       </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -10058,7 +9928,7 @@
         <v>44.02</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -10156,7 +10026,7 @@
         <v>31.35</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -10254,7 +10124,7 @@
         <v>69.040000000000006</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -10352,7 +10222,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -10450,7 +10320,7 @@
         <v>29.67</v>
       </c>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -10548,7 +10418,7 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -10646,7 +10516,7 @@
         <v>58.99</v>
       </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -10744,7 +10614,7 @@
         <v>55.76</v>
       </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -10842,7 +10712,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -10940,7 +10810,7 @@
         <v>20.02</v>
       </c>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -11038,7 +10908,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -11136,7 +11006,7 @@
         <v>66.900000000000006</v>
       </c>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -11234,7 +11104,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -11332,7 +11202,7 @@
         <v>41.87</v>
       </c>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -11430,7 +11300,7 @@
         <v>28.53</v>
       </c>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -11528,7 +11398,7 @@
         <v>52.43</v>
       </c>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -11626,7 +11496,7 @@
         <v>45.38</v>
       </c>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -11724,7 +11594,7 @@
         <v>10.74</v>
       </c>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -11822,7 +11692,7 @@
         <v>55.94</v>
       </c>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -11920,7 +11790,7 @@
         <v>13.05</v>
       </c>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -12018,7 +11888,7 @@
         <v>12.85</v>
       </c>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -12116,7 +11986,7 @@
         <v>28.89</v>
       </c>
     </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -12214,7 +12084,7 @@
         <v>5.63</v>
       </c>
     </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -12312,7 +12182,7 @@
         <v>11.02</v>
       </c>
     </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -12410,7 +12280,7 @@
         <v>12.83</v>
       </c>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -12508,7 +12378,7 @@
         <v>21.47</v>
       </c>
     </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -12606,7 +12476,7 @@
         <v>9.93</v>
       </c>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -12704,7 +12574,7 @@
         <v>17.14</v>
       </c>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -12802,7 +12672,7 @@
         <v>8.01</v>
       </c>
     </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -12900,7 +12770,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -12998,7 +12868,7 @@
         <v>8.4700000000000006</v>
       </c>
     </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -13096,7 +12966,7 @@
         <v>16.62</v>
       </c>
     </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -13194,7 +13064,7 @@
         <v>24.59</v>
       </c>
     </row>
-    <row r="100" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -13292,7 +13162,7 @@
         <v>-3.58</v>
       </c>
     </row>
-    <row r="101" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -13390,7 +13260,7 @@
         <v>20.05</v>
       </c>
     </row>
-    <row r="102" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -13488,7 +13358,7 @@
         <v>129.72</v>
       </c>
     </row>
-    <row r="103" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -13586,7 +13456,7 @@
         <v>27.22</v>
       </c>
     </row>
-    <row r="104" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -13684,7 +13554,7 @@
         <v>55.21</v>
       </c>
     </row>
-    <row r="105" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -13782,7 +13652,7 @@
         <v>15.37</v>
       </c>
     </row>
-    <row r="106" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -13880,7 +13750,7 @@
         <v>14.15</v>
       </c>
     </row>
-    <row r="107" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -13978,7 +13848,7 @@
         <v>18.079999999999998</v>
       </c>
     </row>
-    <row r="108" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -14076,7 +13946,7 @@
         <v>33.229999999999997</v>
       </c>
     </row>
-    <row r="109" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -14174,7 +14044,7 @@
         <v>14.19</v>
       </c>
     </row>
-    <row r="110" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -14272,7 +14142,7 @@
         <v>8.15</v>
       </c>
     </row>
-    <row r="111" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -14370,7 +14240,7 @@
         <v>11.78</v>
       </c>
     </row>
-    <row r="112" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -14468,7 +14338,7 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="113" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -14566,7 +14436,7 @@
         <v>-0.83</v>
       </c>
     </row>
-    <row r="114" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -14661,7 +14531,7 @@
         <v>11.68</v>
       </c>
     </row>
-    <row r="115" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -14759,7 +14629,7 @@
         <v>13.85</v>
       </c>
     </row>
-    <row r="116" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -14857,7 +14727,7 @@
         <v>8.68</v>
       </c>
     </row>
-    <row r="117" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -14955,7 +14825,7 @@
         <v>4.13</v>
       </c>
     </row>
-    <row r="118" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -15053,7 +14923,7 @@
         <v>14.12</v>
       </c>
     </row>
-    <row r="119" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -15151,7 +15021,7 @@
         <v>7.21</v>
       </c>
     </row>
-    <row r="120" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -15249,7 +15119,7 @@
         <v>10.27</v>
       </c>
     </row>
-    <row r="121" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -15347,7 +15217,7 @@
         <v>29.65</v>
       </c>
     </row>
-    <row r="122" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -15445,7 +15315,7 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="123" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -15543,7 +15413,7 @@
         <v>4.9800000000000004</v>
       </c>
     </row>
-    <row r="124" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -15641,7 +15511,7 @@
         <v>7.74</v>
       </c>
     </row>
-    <row r="125" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -15739,7 +15609,7 @@
         <v>32.89</v>
       </c>
     </row>
-    <row r="126" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -15837,7 +15707,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="127" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -15935,7 +15805,7 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="128" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -16033,7 +15903,7 @@
         <v>6.94</v>
       </c>
     </row>
-    <row r="129" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -16131,7 +16001,7 @@
         <v>8.86</v>
       </c>
     </row>
-    <row r="130" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -16229,7 +16099,7 @@
         <v>15.22</v>
       </c>
     </row>
-    <row r="131" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -16327,7 +16197,7 @@
         <v>6.64</v>
       </c>
     </row>
-    <row r="132" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -16425,7 +16295,7 @@
         <v>10.68</v>
       </c>
     </row>
-    <row r="133" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -16523,7 +16393,7 @@
         <v>30.23</v>
       </c>
     </row>
-    <row r="134" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -16621,7 +16491,7 @@
         <v>7.83</v>
       </c>
     </row>
-    <row r="135" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -16719,7 +16589,7 @@
         <v>3.46</v>
       </c>
     </row>
-    <row r="136" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -16817,7 +16687,7 @@
         <v>21.74</v>
       </c>
     </row>
-    <row r="137" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -16915,7 +16785,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="138" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -17013,7 +16883,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="139" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -17111,7 +16981,7 @@
         <v>8.59</v>
       </c>
     </row>
-    <row r="140" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -17209,7 +17079,7 @@
         <v>51.81</v>
       </c>
     </row>
-    <row r="141" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -17307,7 +17177,7 @@
         <v>11.05</v>
       </c>
     </row>
-    <row r="142" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -17405,7 +17275,7 @@
         <v>4.49</v>
       </c>
     </row>
-    <row r="143" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -17503,7 +17373,7 @@
         <v>6.89</v>
       </c>
     </row>
-    <row r="144" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -17601,7 +17471,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="145" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -17699,7 +17569,7 @@
         <v>19.98</v>
       </c>
     </row>
-    <row r="146" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -17797,7 +17667,7 @@
         <v>6.24</v>
       </c>
     </row>
-    <row r="147" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -17895,7 +17765,7 @@
         <v>5.84</v>
       </c>
     </row>
-    <row r="148" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -17993,7 +17863,7 @@
         <v>-9.39</v>
       </c>
     </row>
-    <row r="149" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -18091,7 +17961,7 @@
         <v>3.69</v>
       </c>
     </row>
-    <row r="150" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -18189,7 +18059,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -18287,7 +18157,7 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="152" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -18385,7 +18255,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -18483,7 +18353,7 @@
         <v>6.27</v>
       </c>
     </row>
-    <row r="154" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -18581,7 +18451,7 @@
         <v>3.64</v>
       </c>
     </row>
-    <row r="155" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -18679,7 +18549,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="156" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -18777,7 +18647,7 @@
         <v>3.43</v>
       </c>
     </row>
-    <row r="157" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -18875,7 +18745,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="158" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -18973,7 +18843,7 @@
         <v>-0.34</v>
       </c>
     </row>
-    <row r="159" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -19071,7 +18941,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="160" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -19169,7 +19039,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="161" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -19267,7 +19137,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="162" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -19365,7 +19235,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="163" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -19463,7 +19333,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="164" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -19561,7 +19431,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="165" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -19659,7 +19529,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="166" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -19757,7 +19627,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="167" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -19855,7 +19725,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="168" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -19953,7 +19823,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="169" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -20051,7 +19921,7 @@
         <v>5.33</v>
       </c>
     </row>
-    <row r="170" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -20149,7 +20019,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="171" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -20247,7 +20117,7 @@
         <v>-0.41</v>
       </c>
     </row>
-    <row r="172" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -20345,7 +20215,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="173" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -20443,7 +20313,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="174" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -20541,7 +20411,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="175" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -20639,7 +20509,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="176" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -20737,7 +20607,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="177" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -20835,7 +20705,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="178" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -20933,7 +20803,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="179" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -21031,7 +20901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -21129,7 +20999,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="181" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -21227,7 +21097,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="182" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -21325,7 +21195,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="183" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -21423,7 +21293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -21521,7 +21391,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="185" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -21619,7 +21489,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -21717,7 +21587,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="187" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -21815,7 +21685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -21913,7 +21783,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="189" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -22011,7 +21881,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="190" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -22109,7 +21979,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="191" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -22207,7 +22077,7 @@
         <v>-6.48</v>
       </c>
     </row>
-    <row r="192" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -22305,7 +22175,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="193" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -22403,7 +22273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -22501,7 +22371,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="195" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -22599,7 +22469,7 @@
         <v>-1.81</v>
       </c>
     </row>
-    <row r="196" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -22697,13 +22567,13 @@
         <v>12.67</v>
       </c>
     </row>
-    <row r="197" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="AG197" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="198" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:34" x14ac:dyDescent="0.25">
       <c r="F198" s="3" t="s">
         <v>233</v>
       </c>
@@ -22816,7 +22686,7 @@
         <v>-59.642307692307703</v>
       </c>
     </row>
-    <row r="199" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:34" x14ac:dyDescent="0.25">
       <c r="F199" s="3" t="s">
         <v>230</v>
       </c>
@@ -22932,7 +22802,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="200" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:34" x14ac:dyDescent="0.25">
       <c r="F200" s="3" t="s">
         <v>231</v>
       </c>
@@ -23048,7 +22918,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="201" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:34" x14ac:dyDescent="0.25">
       <c r="F201" s="3" t="s">
         <v>232</v>
       </c>
@@ -23164,7 +23034,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="202" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:34" x14ac:dyDescent="0.25">
       <c r="F202" s="3" t="s">
         <v>234</v>
       </c>
